--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -33,15 +33,21 @@
   <si>
     <t>Rest-in-Peace</t>
   </si>
+  <si>
+    <t>MAINMENU</t>
+  </si>
+  <si>
+    <t>dark-theme_wind</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -54,7 +60,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,6 +75,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -69,53 +114,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,21 +136,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,14 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -173,29 +202,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,25 +212,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,157 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,16 +406,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -431,6 +448,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -441,17 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,21 +503,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,16 +511,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,127 +529,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,13 +1005,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1032,6 +1038,20 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -39,16 +39,22 @@
   <si>
     <t>dark-theme_wind</t>
   </si>
+  <si>
+    <t>TACTICS1</t>
+  </si>
+  <si>
+    <t>maoudamashii_healing_02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +66,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -67,6 +88,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -75,7 +157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,32 +171,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,74 +208,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,11 +414,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,32 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,8 +477,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,17 +489,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,145 +517,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1053,6 +1059,20 @@
       </c>
       <c r="D3" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>maoudamashii_healing_02</t>
+  </si>
+  <si>
+    <t>BATTLE1</t>
+  </si>
+  <si>
+    <t>paradox</t>
+  </si>
+  <si>
+    <t>BATTLE2</t>
+  </si>
+  <si>
+    <t>memento</t>
+  </si>
+  <si>
+    <t>BATTLE3</t>
+  </si>
+  <si>
+    <t>Disorder</t>
   </si>
 </sst>
 </file>
@@ -53,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +83,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -72,8 +152,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -81,14 +168,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,70 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,34 +220,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,13 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,169 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +439,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -436,26 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,19 +495,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -517,16 +535,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,127 +553,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1073,6 +1091,48 @@
       </c>
       <c r="D4" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Disorder</t>
+  </si>
+  <si>
+    <t>BATTLE4</t>
+  </si>
+  <si>
+    <t>scarlet</t>
   </si>
 </sst>
 </file>
@@ -70,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,55 +89,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,30 +127,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,16 +171,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,49 +242,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,25 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,103 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,22 +440,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,8 +463,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,11 +484,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,16 +519,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -535,145 +541,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1132,6 +1138,20 @@
         <v>15</v>
       </c>
       <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>maoudamashii_healing_02</t>
+  </si>
+  <si>
+    <t>TACTICS2</t>
+  </si>
+  <si>
+    <t>maoudamashii_healing_03</t>
+  </si>
+  <si>
+    <t>TACTICS3</t>
+  </si>
+  <si>
+    <t>maoudamashii_cyber_12</t>
   </si>
   <si>
     <t>BATTLE1</t>
@@ -75,9 +87,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -103,6 +115,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -111,8 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,113 +244,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,13 +254,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,13 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,151 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,8 +451,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,11 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,21 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,16 +522,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -541,7 +553,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,7 +562,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,94 +571,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,31 +688,10 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,13 +1047,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="23.5454545454545" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1110,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1124,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1152,6 +1168,34 @@
         <v>17</v>
       </c>
       <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -61,7 +61,7 @@
     <t>BATTLE1</t>
   </si>
   <si>
-    <t>paradox</t>
+    <t>scarlet</t>
   </si>
   <si>
     <t>BATTLE2</t>
@@ -79,7 +79,13 @@
     <t>BATTLE4</t>
   </si>
   <si>
-    <t>scarlet</t>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t>BATTLE5</t>
+  </si>
+  <si>
+    <t>vOicE</t>
   </si>
 </sst>
 </file>
@@ -87,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,14 +108,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,11 +173,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,8 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,77 +206,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,17 +230,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,30 +260,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,61 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,79 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,9 +456,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,17 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,35 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,6 +518,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,145 +559,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1199,6 +1205,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>vOicE</t>
+  </si>
+  <si>
+    <t>OPENING</t>
+  </si>
+  <si>
+    <t>Ruined</t>
   </si>
 </sst>
 </file>
@@ -93,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,23 +113,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,58 +160,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,17 +173,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,29 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,13 +266,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,169 +356,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +460,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,9 +516,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,21 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,145 +565,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1219,6 +1225,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>Ruined</t>
+  </si>
+  <si>
+    <t>EVENT1</t>
+  </si>
+  <si>
+    <t>Remotest-Liblary</t>
+  </si>
+  <si>
+    <t>EVENT2</t>
+  </si>
+  <si>
+    <t>Farewell</t>
   </si>
 </sst>
 </file>
@@ -99,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,25 +126,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,7 +141,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,16 +171,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,15 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +215,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -201,9 +247,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,49 +263,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,43 +278,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,19 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,115 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,41 +472,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,34 +513,34 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -557,6 +554,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,145 +577,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1239,6 +1251,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Farewell</t>
+  </si>
+  <si>
+    <t>ENDING</t>
+  </si>
+  <si>
+    <t>saikai637</t>
   </si>
 </sst>
 </file>
@@ -112,9 +118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,6 +128,126 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,47 +259,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,90 +274,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,11 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +508,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,20 +545,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +566,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,145 +583,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,10 +1077,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1279,6 +1285,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -118,9 +118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,6 +132,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -139,21 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,22 +246,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,43 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -235,43 +268,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,28 +493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,24 +534,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,145 +583,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -156,106 +156,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,6 +194,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -275,9 +240,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,11 +292,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,49 +308,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,25 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,103 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,54 +513,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +541,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -607,16 +607,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,127 +625,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -43,57 +43,36 @@
     <t>TACTICS1</t>
   </si>
   <si>
-    <t>maoudamashii_healing_02</t>
+    <t>PerituneMaterial_Firmament3_Calm_loop</t>
   </si>
   <si>
     <t>TACTICS2</t>
   </si>
   <si>
-    <t>maoudamashii_healing_03</t>
-  </si>
-  <si>
     <t>TACTICS3</t>
   </si>
   <si>
-    <t>maoudamashii_cyber_12</t>
-  </si>
-  <si>
     <t>BATTLE1</t>
   </si>
   <si>
-    <t>scarlet</t>
+    <t>PerituneMaterial_Firmament3_Active_loop</t>
   </si>
   <si>
     <t>BATTLE2</t>
   </si>
   <si>
-    <t>memento</t>
-  </si>
-  <si>
     <t>BATTLE3</t>
   </si>
   <si>
-    <t>Disorder</t>
-  </si>
-  <si>
     <t>BATTLE4</t>
   </si>
   <si>
-    <t>osana</t>
-  </si>
-  <si>
     <t>BATTLE5</t>
   </si>
   <si>
-    <t>vOicE</t>
-  </si>
-  <si>
     <t>BOSS1</t>
   </si>
   <si>
-    <t>Chronosphere</t>
-  </si>
-  <si>
     <t>OPENING</t>
   </si>
   <si>
@@ -127,13 +106,7 @@
     <t>BATTLE6</t>
   </si>
   <si>
-    <t>hilink_code</t>
-  </si>
-  <si>
     <t>BATTLE7</t>
-  </si>
-  <si>
-    <t>Kimera</t>
   </si>
 </sst>
 </file>
@@ -141,9 +114,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -156,24 +129,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,101 +242,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,25 +281,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,139 +437,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +472,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,8 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,17 +544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,30 +558,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,145 +580,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1077,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1177,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1188,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1202,13 +1175,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1216,13 +1189,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1230,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1244,13 +1217,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1258,13 +1231,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1272,13 +1245,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1286,10 +1259,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1300,10 +1273,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1314,10 +1287,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1328,10 +1301,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1342,10 +1315,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1356,13 +1329,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1370,13 +1343,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -31,22 +31,25 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>Rest-in-Peace</t>
+    <t>Peritune_Moonlit_Overture</t>
   </si>
   <si>
     <t>MAINMENU</t>
   </si>
   <si>
-    <t>dark-theme_wind</t>
+    <t>PerituneMaterial_RainDrop_loop</t>
   </si>
   <si>
     <t>TACTICS1</t>
   </si>
   <si>
+    <t>PerituneMaterial_Dream_and_Reality_inst_loop</t>
+  </si>
+  <si>
+    <t>TACTICS2</t>
+  </si>
+  <si>
     <t>PerituneMaterial_Firmament3_Calm_loop</t>
-  </si>
-  <si>
-    <t>TACTICS2</t>
   </si>
   <si>
     <t>TACTICS3</t>
@@ -114,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,66 +132,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +213,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -210,26 +259,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,37 +274,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,25 +284,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,157 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +475,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,6 +516,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,15 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,35 +575,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,145 +583,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1111,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1125,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1150,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1161,10 +1164,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1175,10 +1178,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1189,10 +1192,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1203,10 +1206,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1217,10 +1220,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1231,10 +1234,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1245,10 +1248,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1259,10 +1262,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1273,10 +1276,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1287,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1301,10 +1304,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1315,10 +1318,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1329,10 +1332,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1343,10 +1346,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -28,6 +28,9 @@
     <t>Loop</t>
   </si>
   <si>
+    <t>CrossFade</t>
+  </si>
+  <si>
     <t>TITLE</t>
   </si>
   <si>
@@ -43,34 +46,31 @@
     <t>TACTICS1</t>
   </si>
   <si>
+    <t>PerituneMaterial_Firmament3_Calm_loop</t>
+  </si>
+  <si>
+    <t>TACTICS2</t>
+  </si>
+  <si>
+    <t>PerituneMaterial_Firmament3_Active_loop</t>
+  </si>
+  <si>
+    <t>TACTICS3</t>
+  </si>
+  <si>
     <t>PerituneMaterial_Dream_and_Reality_inst_loop</t>
   </si>
   <si>
-    <t>TACTICS2</t>
-  </si>
-  <si>
-    <t>PerituneMaterial_Firmament3_Calm_loop</t>
-  </si>
-  <si>
-    <t>TACTICS3</t>
+    <t>TACTICS4</t>
+  </si>
+  <si>
+    <t>PerituneMaterial_Dream_and_Reality_loop</t>
   </si>
   <si>
     <t>BATTLE1</t>
   </si>
   <si>
-    <t>PerituneMaterial_Firmament3_Active_loop</t>
-  </si>
-  <si>
     <t>BATTLE2</t>
-  </si>
-  <si>
-    <t>BATTLE3</t>
-  </si>
-  <si>
-    <t>BATTLE4</t>
-  </si>
-  <si>
-    <t>BATTLE5</t>
   </si>
   <si>
     <t>BOSS1</t>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,37 +132,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,97 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -274,6 +244,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -284,31 +284,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,103 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,31 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,11 +478,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,32 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,36 +575,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,145 +583,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,19 +1077,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="23.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="42.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,6 +1101,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1108,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1122,27 +1125,30 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1150,27 +1156,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1178,27 +1187,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1206,10 +1218,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1217,13 +1229,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1231,41 +1243,41 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1273,27 +1285,27 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1301,13 +1313,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1315,43 +1327,15 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -34,13 +34,13 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>Peritune_Moonlit_Overture</t>
+    <t>PerituneMaterial_RainDrop_loop</t>
   </si>
   <si>
     <t>MAINMENU</t>
   </si>
   <si>
-    <t>PerituneMaterial_RainDrop_loop</t>
+    <t>PerituneMaterial_Limpid_Water_loop</t>
   </si>
   <si>
     <t>TACTICS1</t>
@@ -118,8 +118,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -132,6 +132,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -146,25 +160,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,6 +183,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -185,22 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,29 +246,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,12 +284,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,169 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,30 +509,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -528,17 +519,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +541,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -575,6 +564,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,7 +583,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,7 +592,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,28 +601,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,97 +631,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -67,12 +67,6 @@
     <t>PerituneMaterial_Dream_and_Reality_loop</t>
   </si>
   <si>
-    <t>BATTLE1</t>
-  </si>
-  <si>
-    <t>BATTLE2</t>
-  </si>
-  <si>
     <t>BOSS1</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
   </si>
   <si>
     <t>EndOfLvateinn</t>
-  </si>
-  <si>
-    <t>BATTLE6</t>
-  </si>
-  <si>
-    <t>BATTLE7</t>
   </si>
 </sst>
 </file>
@@ -117,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -132,37 +120,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,43 +173,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +186,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -229,10 +202,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,24 +217,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +272,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,151 +422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +463,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,21 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,17 +508,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,145 +571,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,16 +1065,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="42.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="10.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1151,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1163,6 +1152,9 @@
       </c>
       <c r="D5" t="b">
         <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1179,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1195,61 +1187,61 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1257,86 +1249,30 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>BOSS1</t>
+  </si>
+  <si>
+    <t>PerituneMaterial_Cyber_Noir</t>
   </si>
   <si>
     <t>OPENING</t>
@@ -105,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,29 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +144,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -172,7 +160,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,16 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,14 +216,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -218,6 +231,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -226,38 +260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,37 +275,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,145 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,8 +472,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +489,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,32 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,145 +574,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1071,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1199,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1210,10 +1213,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1224,10 +1227,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1238,10 +1241,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1252,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1266,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -70,7 +70,7 @@
     <t>BOSS1</t>
   </si>
   <si>
-    <t>PerituneMaterial_Cyber_Noir</t>
+    <t>PerituneMaterial_Cyber_Noir_loop</t>
   </si>
   <si>
     <t>OPENING</t>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,14 +123,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,28 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -174,14 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -192,23 +230,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,50 +261,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,30 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,22 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +523,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -566,6 +555,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,145 +574,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -76,7 +76,7 @@
     <t>OPENING</t>
   </si>
   <si>
-    <t>Ruined</t>
+    <t>PerituneMaterial_Grief_inst_loop</t>
   </si>
   <si>
     <t>EVENT1</t>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,7 +123,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +183,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,59 +205,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +235,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -222,37 +252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,25 +275,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,157 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,21 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,11 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,7 +527,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +549,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -574,145 +574,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1219,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -70,7 +70,7 @@
     <t>BOSS1</t>
   </si>
   <si>
-    <t>PerituneMaterial_Cyber_Noir_loop</t>
+    <t>KouriNoShihaisya</t>
   </si>
   <si>
     <t>OPENING</t>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,6 +122,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -130,15 +152,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,25 +190,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,8 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,47 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,15 +252,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,37 +275,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,145 +437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +466,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +489,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +547,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,26 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,67 +574,67 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -643,76 +643,76 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -70,7 +70,7 @@
     <t>BOSS1</t>
   </si>
   <si>
-    <t>KouriNoShihaisya</t>
+    <t>PerituneMaterial_Cyber_Noir_loop</t>
   </si>
   <si>
     <t>OPENING</t>
@@ -109,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,6 +119,104 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,20 +228,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -158,109 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,121 +281,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,55 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,17 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -515,6 +504,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,15 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -566,6 +555,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,145 +574,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -58,13 +58,13 @@
     <t>TACTICS3</t>
   </si>
   <si>
-    <t>PerituneMaterial_Dream_and_Reality_inst_loop</t>
+    <t>PerituneMaterial_Grief_inst_loop</t>
   </si>
   <si>
     <t>TACTICS4</t>
   </si>
   <si>
-    <t>PerituneMaterial_Dream_and_Reality_loop</t>
+    <t>PerituneMaterial_Grief_loop</t>
   </si>
   <si>
     <t>BOSS1</t>
@@ -76,31 +76,25 @@
     <t>OPENING</t>
   </si>
   <si>
-    <t>PerituneMaterial_Grief_inst_loop</t>
-  </si>
-  <si>
     <t>EVENT1</t>
   </si>
   <si>
-    <t>Remotest-Liblary</t>
+    <t>PerituneMaterial_Dawning_Tale</t>
   </si>
   <si>
     <t>EVENT2</t>
   </si>
   <si>
-    <t>Farewell</t>
+    <t>""</t>
   </si>
   <si>
     <t>ENDING</t>
   </si>
   <si>
-    <t>saikai637</t>
-  </si>
-  <si>
     <t>LAST_BOSS</t>
   </si>
   <si>
-    <t>EndOfLvateinn</t>
+    <t>UniqueGear_Kaibyaku_No_Ragnarok</t>
   </si>
 </sst>
 </file>
@@ -108,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,6 +113,20 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,23 +153,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,28 +206,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -228,37 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -275,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +472,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -489,6 +492,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +529,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,32 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,16 +568,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,124 +589,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1065,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1216,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1227,10 +1221,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1241,10 +1235,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1255,10 +1249,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1269,10 +1263,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -85,7 +85,7 @@
     <t>EVENT2</t>
   </si>
   <si>
-    <t>""</t>
+    <t>PerituneMaterial_Limpid_Water_melodyoff_loop</t>
   </si>
   <si>
     <t>ENDING</t>
@@ -103,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,16 +117,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,110 +245,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,21 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,56 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,145 +568,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1252,7 +1252,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,6 +117,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -124,7 +185,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +206,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -147,51 +240,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,56 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +269,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,19 +419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,145 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +485,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,20 +524,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,24 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,145 +568,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1269,7 +1269,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
